--- a/data/exampleStochastic/Power_Parameters.xlsx
+++ b/data/exampleStochastic/Power_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\git\LEGO-Pyomo\data\exampleStochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF9BB4-4ABF-4FF3-A0A6-2B23519EA76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0865868E-563F-4014-923A-8DE82854A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Parameters" sheetId="121" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>[p.u.]</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>cyclic</t>
+  </si>
+  <si>
+    <t>Force Primitive Storage Usage</t>
+  </si>
+  <si>
+    <t>pForcePrimitiveStorageUsage</t>
+  </si>
+  <si>
+    <t>Force primitive storage usage</t>
   </si>
 </sst>
 </file>
@@ -563,287 +572,7 @@
     <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Standard 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <b/>
@@ -1385,11 +1114,13 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="B1:H79"/>
+  <dimension ref="B1:H82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
@@ -1402,12 +1133,12 @@
     <col min="9" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1435,7 +1166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1443,8 +1174,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1469,8 +1200,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1495,12 +1226,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1508,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1525,16 +1256,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>75</v>
       </c>
@@ -1542,7 +1273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>76</v>
       </c>
@@ -1553,11 +1284,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>72</v>
       </c>
@@ -1565,7 +1296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1576,11 +1307,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>78</v>
       </c>
@@ -1588,7 +1319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1599,11 +1330,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>82</v>
       </c>
@@ -1611,7 +1342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
@@ -1622,11 +1353,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
@@ -1634,7 +1365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
@@ -1645,450 +1376,465 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="7" t="s">
+    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="5" t="s">
+    <row r="36" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="5" t="s">
+    <row r="41" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
+    <row r="43" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C43" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="5" t="s">
+    <row r="44" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
+    <row r="46" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C46" s="9">
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="5" t="s">
+    <row r="47" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
+    <row r="49" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="5" t="s">
+    <row r="50" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
+    <row r="52" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C52" s="10">
         <v>0.7</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="5" t="s">
+    <row r="53" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="3" t="s">
+    <row r="55" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C55" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="7" t="s">
+    <row r="56" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:5" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="5" t="s">
+    <row r="58" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="7" t="s">
+    <row r="64" spans="2:5" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="5" t="s">
+    <row r="65" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="3"/>
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C66" s="10">
         <v>0.03</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67"/>
     </row>
-    <row r="68" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="13">
-        <v>0.2</v>
+        <v>66</v>
+      </c>
+      <c r="C69" s="10">
+        <v>0.03</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C72" s="13">
         <v>0.2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
       <c r="C73"/>
     </row>
-    <row r="74" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="7" t="s">
+    <row r="74" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3"/>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="5" t="s">
+    <row r="78" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>93</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="81" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="71" priority="39" operator="equal">
+  <conditionalFormatting sqref="C5:C6 C14:C30 C32:C34">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="69" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="99" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="100" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="67" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="97" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="98" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C31">
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="63" priority="109" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="98" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="109" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="110" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40 C43">
-    <cfRule type="cellIs" dxfId="59" priority="85" operator="equal">
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="23" priority="87" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="88" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+  <conditionalFormatting sqref="C43 C46">
+    <cfRule type="cellIs" dxfId="21" priority="85" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="86" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="55" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="83" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="84" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="81" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="82" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56 C59">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
+  <conditionalFormatting sqref="C55">
+    <cfRule type="cellIs" dxfId="15" priority="79" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="80" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C64">
+  <conditionalFormatting sqref="C59 C62">
+    <cfRule type="cellIs" dxfId="13" priority="43" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C67">
     <cfRule type="cellIs" dxfId="11" priority="93" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2096,7 +1842,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C67">
+  <conditionalFormatting sqref="C69:C70">
     <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2104,7 +1850,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C70">
+  <conditionalFormatting sqref="C72:C73">
     <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2112,7 +1858,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C73">
+  <conditionalFormatting sqref="C75:C76">
     <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2120,7 +1866,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
+  <conditionalFormatting sqref="C79">
     <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2128,7 +1874,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C82">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2137,11 +1883,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C34 C37 C46 C56 C59 C27 C18 C24 C21 C30" xr:uid="{3037D345-D942-4EE1-9FD6-4C812B603C20}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C37 C40 C49 C59 C62 C27 C18 C24 C21 C33 C30:C31" xr:uid="{3037D345-D942-4EE1-9FD6-4C812B603C20}">
       <formula1>"No, Yes"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C9 C12 C64 C67 C70 C73 C15:C31" xr:uid="{87C6F772-FD4B-9449-B9E7-DA0FF0A031BB}"/>
-    <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C63 C49 C66 C69 C72 C76 C79" xr:uid="{2B929D69-0393-BA4C-AFD3-02F233DB330E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C9 C12 C67 C70 C73 C76 C15:C34" xr:uid="{87C6F772-FD4B-9449-B9E7-DA0FF0A031BB}"/>
+    <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C66 C52 C69 C72 C75 C79 C82" xr:uid="{2B929D69-0393-BA4C-AFD3-02F233DB330E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2158,12 +1904,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2309,6 +2049,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
@@ -2318,22 +2064,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2349,4 +2079,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/exampleStochastic/Power_Parameters.xlsx
+++ b/data/exampleStochastic/Power_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo2\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF9BB4-4ABF-4FF3-A0A6-2B23519EA76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A658E7-62F7-4FD1-9B9B-EE98D50A0A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33915" yWindow="-21810" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Parameters" sheetId="121" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>[p.u.]</t>
   </si>
@@ -282,12 +282,6 @@
     <t>[notEnforced, cyclic, markov]</t>
   </si>
   <si>
-    <t>Run-of-River</t>
-  </si>
-  <si>
-    <t>pEnableRoR</t>
-  </si>
-  <si>
     <t>Enable modules and load corresponding input files</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
     <t>Enable VRES</t>
   </si>
   <si>
-    <t>Enable Run-Of-River</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -346,13 +337,19 @@
   </si>
   <si>
     <t>cyclic</t>
+  </si>
+  <si>
+    <t>Format:</t>
+  </si>
+  <si>
+    <t>v0.1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -428,6 +425,11 @@
       <sz val="10"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="8">
@@ -510,7 +512,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -551,6 +553,12 @@
     <xf numFmtId="2" fontId="9" fillId="6" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
@@ -563,287 +571,7 @@
     <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Standard 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4E9C49"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFB90135"/>
-      </font>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <b/>
@@ -1385,11 +1113,11 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="B1:H79"/>
+  <dimension ref="B1:H76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
@@ -1402,12 +1130,20 @@
     <col min="9" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1435,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1443,8 +1179,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1469,8 +1205,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1495,12 +1231,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1508,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1525,594 +1261,563 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="3"/>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="8" t="s">
+    </row>
+    <row r="44" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="6" t="s">
+    <row r="53" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="7" t="s">
+    <row r="58" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C63" s="10">
         <v>0.03</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3"/>
       <c r="C64"/>
     </row>
-    <row r="65" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0.03</v>
+        <v>61</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0.2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67"/>
     </row>
-    <row r="68" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C69" s="13">
         <v>0.2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="3"/>
-      <c r="C73"/>
-    </row>
-    <row r="74" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="7" t="s">
+    <row r="71" spans="2:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C72" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="71" priority="39" operator="equal">
+  <conditionalFormatting sqref="C5:C6 C14:C28">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="69" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="99" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="100" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="67" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="97" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="98" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C31">
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="25" priority="109" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="110" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="63" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="87" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="88" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
+  <conditionalFormatting sqref="C37 C40">
+    <cfRule type="cellIs" dxfId="21" priority="85" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="86" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40 C43">
-    <cfRule type="cellIs" dxfId="59" priority="85" operator="equal">
+  <conditionalFormatting sqref="C43">
+    <cfRule type="cellIs" dxfId="19" priority="83" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="84" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="81" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="82" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="55" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="79" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="80" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
+  <conditionalFormatting sqref="C53 C56">
+    <cfRule type="cellIs" dxfId="13" priority="43" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56 C59">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
+  <conditionalFormatting sqref="C60:C61">
+    <cfRule type="cellIs" dxfId="11" priority="93" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="94" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="cellIs" dxfId="11" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="32" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:C67">
-    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C70">
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C73">
     <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2120,7 +1825,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
+  <conditionalFormatting sqref="C73">
     <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2128,7 +1833,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C76">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -2137,11 +1842,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C34 C37 C46 C56 C59 C27 C18 C24 C21 C30" xr:uid="{3037D345-D942-4EE1-9FD6-4C812B603C20}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C31 C34 C43 C53 C56 C24 C18 C21 C27" xr:uid="{3037D345-D942-4EE1-9FD6-4C812B603C20}">
       <formula1>"No, Yes"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C9 C12 C64 C67 C70 C73 C15:C31" xr:uid="{87C6F772-FD4B-9449-B9E7-DA0FF0A031BB}"/>
-    <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C63 C49 C66 C69 C72 C76 C79" xr:uid="{2B929D69-0393-BA4C-AFD3-02F233DB330E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C9 C12 C61 C64 C67 C70 C15:C28" xr:uid="{87C6F772-FD4B-9449-B9E7-DA0FF0A031BB}"/>
+    <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C60 C46 C63 C66 C69 C73 C76" xr:uid="{2B929D69-0393-BA4C-AFD3-02F233DB330E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2149,21 +1854,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2309,31 +1999,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2349,4 +2030,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>